--- a/Excel 2024 Intro to Data Analysis Exercise Files/Practice File_Excel Intro to data Anaylsis.xlsx
+++ b/Excel 2024 Intro to Data Analysis Exercise Files/Practice File_Excel Intro to data Anaylsis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\Excel 2024 Intro to Data Analysis Exercise Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6B0DC7-02BB-42DB-8BE8-773B5171A2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBA485B-923C-49E8-943F-CAC9D9F5D654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="915" xr2:uid="{4FC4CBE6-982A-425A-A951-D5F54DB52007}"/>
   </bookViews>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="572">
   <si>
     <t xml:space="preserve">Creating Tables </t>
   </si>
@@ -1830,6 +1830,9 @@
   </si>
   <si>
     <t>Fila total</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -2563,7 +2566,7 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
@@ -2738,7 +2741,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2781,24 +2802,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="20% - Accent2 2" xfId="18" xr:uid="{43995203-A883-413A-B3DB-B4C0B1E80CD4}"/>
@@ -2833,10 +2842,10 @@
     <cellStyle name="Título" xfId="1" builtinId="15"/>
     <cellStyle name="Título 2" xfId="2" builtinId="17"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="31">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2846,11 +2855,26 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <family val="3"/>
-        <scheme val="none"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2869,46 +2893,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3174,6 +3158,216 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="174" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3668,22 +3862,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{451BB6B0-E8E1-464F-AA84-C93F2D521016}" name="Tabla5" displayName="Tabla5" ref="A3:I40" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{451BB6B0-E8E1-464F-AA84-C93F2D521016}" name="Tabla5" displayName="Tabla5" ref="A3:I41" totalsRowCount="1" headerRowDxfId="30" dataDxfId="29" dataCellStyle="Normal 2">
   <autoFilter ref="A3:I40" xr:uid="{451BB6B0-E8E1-464F-AA84-C93F2D521016}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I40">
     <sortCondition ref="D4:D40"/>
     <sortCondition ref="B4:B40"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1F3709C0-BDD4-4A55-9CBC-78B355431404}" name="Emp ID" dataDxfId="10" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{B1CD131E-8F2E-42AB-801A-5B6009AF2025}" name="Last Name" dataDxfId="9" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{2F757482-821A-4255-9D01-F2E93B56E93A}" name="First Name" dataDxfId="8" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{54D4905F-27B6-4ED9-9764-18F877AE4AF7}" name="Dept" dataDxfId="7" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{5A83B2D7-BAA6-446E-B9C3-332EA8F5317D}" name="E-mail" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{8C1D76A1-74BA-4284-BBA5-08D792640CE2}" name="Phone Ext" dataDxfId="5" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{8824C19D-D67E-4377-A0AA-3549166EB344}" name="Location" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" xr3:uid="{CC4E8785-D0DD-45B6-A1CA-223F47E895DE}" name="Hire Date" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{64481002-DB3A-43F6-9E7C-79267C21DEC6}" name="Pay Rate" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{1F3709C0-BDD4-4A55-9CBC-78B355431404}" name="Emp ID" totalsRowLabel="Total" dataDxfId="28" totalsRowDxfId="8" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{B1CD131E-8F2E-42AB-801A-5B6009AF2025}" name="Last Name" dataDxfId="27" totalsRowDxfId="7" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{2F757482-821A-4255-9D01-F2E93B56E93A}" name="First Name" dataDxfId="26" totalsRowDxfId="6" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{54D4905F-27B6-4ED9-9764-18F877AE4AF7}" name="Dept" dataDxfId="25" totalsRowDxfId="5" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{5A83B2D7-BAA6-446E-B9C3-332EA8F5317D}" name="E-mail" dataDxfId="24" totalsRowDxfId="4" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{8C1D76A1-74BA-4284-BBA5-08D792640CE2}" name="Phone Ext" dataDxfId="23" totalsRowDxfId="3" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{8824C19D-D67E-4377-A0AA-3549166EB344}" name="Location" dataDxfId="22" totalsRowDxfId="2" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{CC4E8785-D0DD-45B6-A1CA-223F47E895DE}" name="Hire Date" dataDxfId="21" totalsRowDxfId="1" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{64481002-DB3A-43F6-9E7C-79267C21DEC6}" name="Pay Rate" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="0" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3695,7 +3889,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BB69F559-CDFA-438D-855B-A2E2E5C9F0B3}" name="Customer Name"/>
     <tableColumn id="2" xr3:uid="{2DEAFC7F-4F34-468F-94EA-9AE1C0A371B0}" name="Service Type"/>
-    <tableColumn id="3" xr3:uid="{A46355EB-8F66-4EFA-82FF-416F458C9BD3}" name="Date" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{A46355EB-8F66-4EFA-82FF-416F458C9BD3}" name="Date" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3713,25 +3907,25 @@
     <tableColumn id="1" xr3:uid="{DADA4770-DBDB-4F70-B953-76529BC26E68}" name="Region"/>
     <tableColumn id="2" xr3:uid="{12F3B2B6-A5D0-4211-83E9-4EE2C74B72BE}" name="Sales Rep"/>
     <tableColumn id="3" xr3:uid="{40A1B26F-295F-402F-82EA-D36266244077}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{6030199D-ED90-438C-9F9A-B8CF77E9E716}" name="Units" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{6030199D-ED90-438C-9F9A-B8CF77E9E716}" name="Units" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8DE6FDC8-B9D8-40A0-A515-5BB532D6307B}" name="Table1" displayName="Table1" ref="A1:G31" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8DE6FDC8-B9D8-40A0-A515-5BB532D6307B}" name="Table1" displayName="Table1" ref="A1:G31" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H31">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{76C091E1-4755-4E94-871B-4086825C4444}" name="Salesperson" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{62822876-29BB-41B0-A30E-EF9FB7A0172F}" name="May" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{D93B9699-8D76-449F-BCD0-1EB652556A87}" name="June" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{E6309432-B037-4FAF-B61D-A60680C4E047}" name="July" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{01D30B74-7E4F-4CAD-8868-9B8F874BF44C}" name="Aug." dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{CBC6E6C9-4F3B-49FF-B8C9-293523E12024}" name="Sept." dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{0D27C0FF-846F-4BDA-966A-162A7DC4883E}" name="Oct." dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{76C091E1-4755-4E94-871B-4086825C4444}" name="Salesperson" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{62822876-29BB-41B0-A30E-EF9FB7A0172F}" name="May" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{D93B9699-8D76-449F-BCD0-1EB652556A87}" name="June" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{E6309432-B037-4FAF-B61D-A60680C4E047}" name="July" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{01D30B74-7E4F-4CAD-8868-9B8F874BF44C}" name="Aug." dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{CBC6E6C9-4F3B-49FF-B8C9-293523E12024}" name="Sept." dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{0D27C0FF-846F-4BDA-966A-162A7DC4883E}" name="Oct." dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4037,10 +4231,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.8984375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4060,17 +4254,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
@@ -4100,12 +4294,12 @@
       <c r="I3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="98" t="s">
+      <c r="K3" s="88" t="s">
         <v>554</v>
       </c>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58">
@@ -4164,12 +4358,12 @@
       <c r="I5" s="60">
         <v>23.323201962374185</v>
       </c>
-      <c r="K5" s="95" t="s">
+      <c r="K5" s="87" t="s">
         <v>555</v>
       </c>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
@@ -4199,12 +4393,12 @@
       <c r="I6" s="60">
         <v>32.746626443985036</v>
       </c>
-      <c r="K6" s="97" t="s">
+      <c r="K6" s="86" t="s">
         <v>556</v>
       </c>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
@@ -4234,10 +4428,10 @@
       <c r="I7" s="60">
         <v>20.224401476642818</v>
       </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="58">
@@ -4267,12 +4461,12 @@
       <c r="I8" s="60">
         <v>35.093078297663361</v>
       </c>
-      <c r="K8" s="96" t="s">
+      <c r="K8" s="83" t="s">
         <v>557</v>
       </c>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="58">
@@ -4302,10 +4496,10 @@
       <c r="I9" s="60">
         <v>22.096372011411539</v>
       </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="58">
@@ -4364,12 +4558,12 @@
       <c r="I11" s="60">
         <v>34.737713847797657</v>
       </c>
-      <c r="K11" s="96" t="s">
+      <c r="K11" s="83" t="s">
         <v>559</v>
       </c>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="58">
@@ -4399,10 +4593,10 @@
       <c r="I12" s="60">
         <v>26.263290691845491</v>
       </c>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="58">
@@ -4461,11 +4655,11 @@
       <c r="I14" s="60">
         <v>22.650786708090671</v>
       </c>
-      <c r="K14" s="99" t="s">
+      <c r="K14" s="84" t="s">
         <v>558</v>
       </c>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
@@ -4495,12 +4689,12 @@
       <c r="I15" s="60">
         <v>21.582316808537904</v>
       </c>
-      <c r="K15" s="99">
+      <c r="K15" s="84">
         <f>COUNTBLANK(A3:I40)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="58">
@@ -4559,13 +4753,13 @@
       <c r="I17" s="60">
         <v>26.320559271906468</v>
       </c>
-      <c r="K17" s="100" t="s">
+      <c r="K17" s="80" t="s">
         <v>560</v>
       </c>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
@@ -4595,13 +4789,13 @@
       <c r="I18" s="60">
         <v>34.525388617350792</v>
       </c>
-      <c r="K18" s="100" t="s">
+      <c r="K18" s="80" t="s">
         <v>561</v>
       </c>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="58">
@@ -4631,13 +4825,13 @@
       <c r="I19" s="60">
         <v>28.504920646844454</v>
       </c>
-      <c r="K19" s="100" t="s">
+      <c r="K19" s="80" t="s">
         <v>562</v>
       </c>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="58">
@@ -4667,13 +4861,13 @@
       <c r="I20" s="60">
         <v>27.273205533671039</v>
       </c>
-      <c r="K20" s="100" t="s">
+      <c r="K20" s="80" t="s">
         <v>563</v>
       </c>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="58">
@@ -4732,12 +4926,12 @@
       <c r="I22" s="60">
         <v>23.112682518640405</v>
       </c>
-      <c r="K22" s="101" t="s">
+      <c r="K22" s="81" t="s">
         <v>566</v>
       </c>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="58">
@@ -4767,12 +4961,12 @@
       <c r="I23" s="60">
         <v>21.583297549698294</v>
       </c>
-      <c r="K23" s="101" t="s">
+      <c r="K23" s="81" t="s">
         <v>564</v>
       </c>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="58">
@@ -4802,12 +4996,12 @@
       <c r="I24" s="60">
         <v>28.314886343881007</v>
       </c>
-      <c r="K24" s="101" t="s">
+      <c r="K24" s="81" t="s">
         <v>565</v>
       </c>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="58">
@@ -4866,11 +5060,11 @@
       <c r="I26" s="60">
         <v>20.275620323911021</v>
       </c>
-      <c r="K26" s="102" t="s">
+      <c r="K26" s="82" t="s">
         <v>567</v>
       </c>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="58">
@@ -4900,11 +5094,11 @@
       <c r="I27" s="60">
         <v>21.116426350677912</v>
       </c>
-      <c r="K27" s="102" t="s">
+      <c r="K27" s="82" t="s">
         <v>568</v>
       </c>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="58">
@@ -4934,11 +5128,11 @@
       <c r="I28" s="60">
         <v>34.790615088923452</v>
       </c>
-      <c r="K28" s="102" t="s">
+      <c r="K28" s="82" t="s">
         <v>569</v>
       </c>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="58">
@@ -4968,11 +5162,11 @@
       <c r="I29" s="60">
         <v>28.040146247387376</v>
       </c>
-      <c r="K29" s="102" t="s">
+      <c r="K29" s="82" t="s">
         <v>570</v>
       </c>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="58">
@@ -5291,6 +5485,22 @@
       </c>
       <c r="I40" s="60">
         <v>31.941259411760427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="103" t="s">
+        <v>571</v>
+      </c>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="104">
+        <f>SUBTOTAL(101,Tabla5[Pay Rate])</f>
+        <v>27.305422010328854</v>
       </c>
     </row>
   </sheetData>
@@ -5347,7 +5557,7 @@
   </sheetPr>
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -5379,12 +5589,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="97" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
@@ -9997,7 +10207,7 @@
         <v>12</v>
       </c>
       <c r="U68" s="69">
-        <f t="shared" ref="U68:U99" si="4">S68*T68</f>
+        <f t="shared" ref="U68" si="4">S68*T68</f>
         <v>35.880000000000003</v>
       </c>
       <c r="V68" s="70">
@@ -10054,12 +10264,12 @@
         <v>536</v>
       </c>
       <c r="I3" s="37"/>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="101" t="s">
         <v>537</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
@@ -10077,12 +10287,12 @@
       <c r="I4" s="41">
         <v>1</v>
       </c>
-      <c r="J4" s="94" t="s">
+      <c r="J4" s="102" t="s">
         <v>540</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
@@ -10123,12 +10333,12 @@
       <c r="I6" s="41">
         <v>3</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="102" t="s">
         <v>544</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
@@ -10146,12 +10356,12 @@
       <c r="I7" s="41">
         <v>4</v>
       </c>
-      <c r="J7" s="94" t="s">
+      <c r="J7" s="102" t="s">
         <v>546</v>
       </c>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
@@ -10169,12 +10379,12 @@
       <c r="I8" s="41">
         <v>5</v>
       </c>
-      <c r="J8" s="94" t="s">
+      <c r="J8" s="102" t="s">
         <v>547</v>
       </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
@@ -10209,11 +10419,11 @@
         <v>906792</v>
       </c>
       <c r="I10" s="37"/>
-      <c r="J10" s="90" t="s">
+      <c r="J10" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
       <c r="M10" s="44"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10230,11 +10440,11 @@
         <v>945886</v>
       </c>
       <c r="I11" s="37"/>
-      <c r="J11" s="90" t="s">
+      <c r="J11" s="98" t="s">
         <v>548</v>
       </c>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="44"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10251,11 +10461,11 @@
         <v>1309137</v>
       </c>
       <c r="I12" s="37"/>
-      <c r="J12" s="90" t="s">
+      <c r="J12" s="98" t="s">
         <v>549</v>
       </c>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
       <c r="M12" s="44"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10272,12 +10482,12 @@
         <v>1216894</v>
       </c>
       <c r="I13" s="37"/>
-      <c r="J13" s="91" t="s">
+      <c r="J13" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="92"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="100"/>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
@@ -10293,10 +10503,10 @@
         <v>1331072</v>
       </c>
       <c r="I14" s="37"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="92"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
@@ -10312,10 +10522,10 @@
         <v>1431195</v>
       </c>
       <c r="I15" s="37"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="92"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="100"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
@@ -10330,10 +10540,10 @@
       <c r="D16" s="40">
         <v>907526</v>
       </c>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="92"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="100"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
@@ -10348,10 +10558,10 @@
       <c r="D17" s="40">
         <v>1191364</v>
       </c>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="100"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
@@ -10854,7 +11064,7 @@
   <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.19921875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13558,14 +13768,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="H2"/>
       <c r="I2"/>
     </row>
@@ -13764,10 +13974,10 @@
       <c r="I12" s="35"/>
     </row>
     <row r="14" spans="1:9" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="90" t="s">
         <v>285</v>
       </c>
-      <c r="E14" s="83"/>
+      <c r="E14" s="91"/>
       <c r="F14" s="5"/>
       <c r="H14" s="6" t="s">
         <v>286</v>
@@ -13775,31 +13985,31 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="90" t="s">
         <v>287</v>
       </c>
-      <c r="E15" s="83"/>
+      <c r="E15" s="91"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="90" t="s">
         <v>288</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="91"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="4:6" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="90" t="s">
         <v>289</v>
       </c>
-      <c r="E17" s="83"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="4:6" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="90" t="s">
         <v>290</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="91"/>
       <c r="F18" s="5"/>
     </row>
   </sheetData>
@@ -13845,14 +14055,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="86"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="75" t="s">
@@ -15705,23 +15915,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="95" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="88">
+      <c r="A2" s="96">
         <f ca="1">TODAY()</f>
         <v>45725</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="74" t="s">
@@ -16592,6 +16802,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9FF9DF5BCFFD42A0D5617B9D18FB89" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2841934f81bc4cfb900570f79c0532cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84d60d80-5f5b-4137-9f7f-aa35e391db8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a3ea369e37df7e9f5c63e773dc1f009" ns2:_="">
     <xsd:import namespace="84d60d80-5f5b-4137-9f7f-aa35e391db8c"/>
@@ -16735,15 +16954,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -16751,6 +16961,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C72FE5B-C55C-4229-B71A-733BF9A5181A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9C79389-DA5A-450D-A9C7-83EECC9CAC44}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16768,14 +16986,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C72FE5B-C55C-4229-B71A-733BF9A5181A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6852C49F-E698-4713-96B0-4D2413E91320}">
   <ds:schemaRefs>
